--- a/学习计划-sisi.xlsx
+++ b/学习计划-sisi.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="20180305-20180309第一周" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,6 +61,22 @@
   </si>
   <si>
     <t>温习git，教给洁如安装使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际完成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空隙时间利用计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -68,7 +84,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,16 +99,44 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -100,19 +144,62 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -411,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -422,91 +509,127 @@
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="12.625" customWidth="1"/>
     <col min="5" max="5" width="40.125" customWidth="1"/>
+    <col min="7" max="7" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
+    <row r="3" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C3" s="4">
         <v>43164</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D3" s="4">
         <v>43164</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="F3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="4">
+        <v>43166</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C4" s="7">
         <v>43164</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D4" s="7">
         <v>43165</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" s="8" t="s">
         <v>8</v>
       </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C5" s="4">
         <v>43166</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D5" s="4">
         <v>43166</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="6" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C6" s="7">
         <v>43167</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D6" s="7">
         <v>43168</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" s="8" t="s">
         <v>9</v>
       </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
